--- a/Test_2026-01-01_11-32.xlsx
+++ b/Test_2026-01-01_11-32.xlsx
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>5:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
   </si>
   <si>
     <t>800.00</t>
@@ -234,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
@@ -261,9 +264,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -670,45 +670,47 @@
       <c r="K4" s="8"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c t="s" r="P4" s="11">
+      <c t="s" r="N4" s="7">
         <v>11</v>
       </c>
-      <c t="s" r="Q4" s="12">
+      <c r="O4" s="7"/>
+      <c t="s" r="P4" s="10">
         <v>12</v>
+      </c>
+      <c t="s" r="Q4" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c t="s" r="A6" s="14">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c t="s" r="G6" s="15">
+      <c t="s" r="A6" s="13">
         <v>14</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c t="s" r="K6" s="17">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c t="s" r="G6" s="14">
         <v>15</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c t="s" r="K6" s="16">
+        <v>16</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
